--- a/vurl_list.xlsx
+++ b/vurl_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\林佑樹\Documents\YouTube_API\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D25129-564E-4961-BB49-1ABD1C0607B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104B018E-2348-47D4-B32F-110D78ADA2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="1800" windowWidth="15375" windowHeight="9870" xr2:uid="{E2A080E1-C600-4A5B-A324-8F849D96F703}"/>
+    <workbookView xWindow="4860" yWindow="1050" windowWidth="15375" windowHeight="9870" xr2:uid="{E2A080E1-C600-4A5B-A324-8F849D96F703}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=2VpvV_7xvgM</t>
+    <t>https://www.youtube.com/watch?v=PfTKqh_aqJE</t>
   </si>
 </sst>
 </file>
@@ -428,7 +428,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
